--- a/data/trans_orig/P6713-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE45D71A-6E93-4BA4-A4E5-86EA5E5BBF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F2EBF8-5988-4B73-82D2-6430C57F8A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC293ECA-FBF3-4528-AE75-371BBF393B44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BA28C44-B9BF-461A-967F-9E4A6D3BCA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -93,2104 +93,2104 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,43%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E3D35A-BD3A-421D-94FD-3699824D4E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C3224A-43E0-4856-A07F-B172E597F273}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3462,10 +3462,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3474,13 +3474,13 @@
         <v>11908</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3489,13 +3489,13 @@
         <v>46910</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3510,13 @@
         <v>65110</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3525,13 +3525,13 @@
         <v>40304</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -3540,13 +3540,13 @@
         <v>105415</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3602,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3614,13 +3614,13 @@
         <v>22713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3629,13 +3629,13 @@
         <v>17680</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3647,10 +3647,10 @@
         <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,10 +3665,10 @@
         <v>12789</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>20</v>
@@ -3680,13 +3680,13 @@
         <v>10431</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3695,13 +3695,13 @@
         <v>23219</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3716,13 @@
         <v>37887</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3731,13 +3731,13 @@
         <v>38600</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -3746,13 +3746,13 @@
         <v>76487</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3767,13 @@
         <v>52454</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3782,13 +3782,13 @@
         <v>31843</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -3797,13 +3797,13 @@
         <v>84297</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3818,13 @@
         <v>143686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -3833,13 +3833,13 @@
         <v>91158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -3848,13 +3848,13 @@
         <v>234843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3922,13 +3922,13 @@
         <v>3071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3937,13 +3937,13 @@
         <v>3940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3952,13 +3952,13 @@
         <v>7011</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3973,13 @@
         <v>7595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3988,13 +3988,13 @@
         <v>11872</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4003,13 +4003,13 @@
         <v>19467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4024,13 @@
         <v>14613</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4039,13 +4039,13 @@
         <v>14341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -4054,13 +4054,13 @@
         <v>28954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4075,13 @@
         <v>14311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4090,13 +4090,13 @@
         <v>7824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -4105,13 +4105,13 @@
         <v>22135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4126,13 @@
         <v>41692</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4141,13 +4141,13 @@
         <v>17657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4156,13 +4156,13 @@
         <v>59349</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4230,13 @@
         <v>959</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4245,13 +4245,13 @@
         <v>1057</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4260,13 +4260,13 @@
         <v>2016</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4281,13 @@
         <v>4967</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4296,13 +4296,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4311,13 +4311,13 @@
         <v>7316</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4332,13 @@
         <v>22712</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4347,13 +4347,13 @@
         <v>14855</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -4362,13 +4362,13 @@
         <v>37567</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4383,13 @@
         <v>22785</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4398,13 +4398,13 @@
         <v>12607</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4413,13 +4413,13 @@
         <v>35392</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4434,13 @@
         <v>63526</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4449,13 +4449,13 @@
         <v>24424</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>80</v>
@@ -4464,13 +4464,13 @@
         <v>87951</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4526,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4538,13 @@
         <v>10488</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -4553,13 +4553,13 @@
         <v>11399</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -4568,13 +4568,13 @@
         <v>21886</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4589,13 @@
         <v>14720</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4604,13 +4604,13 @@
         <v>17291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
@@ -4619,13 +4619,13 @@
         <v>32011</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4640,13 @@
         <v>73331</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -4655,13 +4655,13 @@
         <v>51979</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4670,13 +4670,13 @@
         <v>125310</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4691,13 @@
         <v>49077</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>24</v>
@@ -4706,28 +4706,28 @@
         <v>24374</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>72</v>
       </c>
       <c r="N43" s="7">
-        <v>73450</v>
+        <v>73451</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4742,13 @@
         <v>123403</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -4757,28 +4757,28 @@
         <v>76136</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
       </c>
       <c r="N44" s="7">
-        <v>199538</v>
+        <v>199539</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
         <v>422</v>
       </c>
       <c r="N45" s="7">
-        <v>452195</v>
+        <v>452196</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>62</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4846,13 +4846,13 @@
         <v>11914</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -4861,13 +4861,13 @@
         <v>13056</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -4876,13 +4876,13 @@
         <v>24969</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4897,13 @@
         <v>22267</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -4912,13 +4912,13 @@
         <v>12702</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M47" s="7">
         <v>29</v>
@@ -4966,10 +4966,10 @@
         <v>300</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -4978,13 +4978,13 @@
         <v>132419</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4999,13 @@
         <v>127369</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>80</v>
@@ -5014,13 +5014,13 @@
         <v>90904</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -5029,13 +5029,13 @@
         <v>218272</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,10 +5050,10 @@
         <v>115968</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>316</v>
@@ -5220,13 +5220,13 @@
         <v>63767</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M53" s="7">
         <v>125</v>
@@ -5235,13 +5235,13 @@
         <v>139446</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5256,13 @@
         <v>288346</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H54" s="7">
         <v>184</v>
@@ -5271,10 +5271,10 @@
         <v>198680</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>344</v>
@@ -5292,7 +5292,7 @@
         <v>346</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>347</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5307,13 @@
         <v>324840</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H55" s="7">
         <v>181</v>
@@ -5322,13 +5322,13 @@
         <v>198719</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K55" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -5337,13 +5337,13 @@
         <v>523559</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5358,13 @@
         <v>666760</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H56" s="7">
         <v>394</v>
@@ -5373,13 +5373,13 @@
         <v>422865</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M56" s="7">
         <v>1016</v>
@@ -5388,13 +5388,13 @@
         <v>1089625</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5450,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28CD135-92FD-46FD-A08A-68A099C8BA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8024BF3A-838A-46D4-8C75-BFA0109503DE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,7 +5491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5598,13 +5598,13 @@
         <v>17357</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5613,13 +5613,13 @@
         <v>15900</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5628,13 +5628,13 @@
         <v>33257</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5649,13 @@
         <v>22412</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5664,13 +5664,13 @@
         <v>9762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5679,13 +5679,13 @@
         <v>32174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5700,13 @@
         <v>25747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5715,13 +5715,13 @@
         <v>19019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5730,13 +5730,13 @@
         <v>44765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5751,13 @@
         <v>24351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5766,13 +5766,13 @@
         <v>21428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5781,13 +5781,13 @@
         <v>45780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5802,13 @@
         <v>46298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5817,13 +5817,13 @@
         <v>34867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5832,13 +5832,13 @@
         <v>81165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5906,13 @@
         <v>9848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5921,13 +5921,13 @@
         <v>14454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5936,13 +5936,13 @@
         <v>24302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5957,13 @@
         <v>11743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5972,13 +5972,13 @@
         <v>14164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5987,13 +5987,13 @@
         <v>25906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6008,13 @@
         <v>39605</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -6023,13 +6023,13 @@
         <v>23524</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6038,13 +6038,13 @@
         <v>63129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6059,13 @@
         <v>41888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6074,13 +6074,13 @@
         <v>15710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6089,13 +6089,13 @@
         <v>57598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6110,13 @@
         <v>67213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6125,13 +6125,13 @@
         <v>45827</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6140,13 +6140,13 @@
         <v>113040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6214,13 @@
         <v>6042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6229,13 +6229,13 @@
         <v>6678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -6244,13 +6244,13 @@
         <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6265,13 @@
         <v>13952</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6280,13 +6280,13 @@
         <v>12273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6295,13 +6295,13 @@
         <v>26225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6316,13 @@
         <v>40240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6331,13 +6331,13 @@
         <v>18742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6346,13 +6346,13 @@
         <v>58982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6367,13 @@
         <v>34869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6382,13 +6382,13 @@
         <v>32212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -6397,13 +6397,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6418,13 @@
         <v>31281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6433,13 +6433,13 @@
         <v>14429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6448,13 +6448,13 @@
         <v>45710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6510,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6522,13 +6522,13 @@
         <v>5518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6537,13 +6537,13 @@
         <v>11767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6552,13 +6552,13 @@
         <v>17285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6573,13 @@
         <v>9259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6588,13 +6588,13 @@
         <v>7084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6603,13 +6603,13 @@
         <v>16343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6624,13 @@
         <v>15226</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6642,10 +6642,10 @@
         <v>41</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6654,13 +6654,13 @@
         <v>23134</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6675,13 @@
         <v>8909</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6690,10 +6690,10 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>518</v>
@@ -6756,13 +6756,13 @@
         <v>115273</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>528</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6830,13 +6830,13 @@
         <v>1914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6845,13 +6845,13 @@
         <v>827</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6860,13 +6860,13 @@
         <v>2741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6881,13 @@
         <v>888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6896,13 +6896,13 @@
         <v>6455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -6911,13 +6911,13 @@
         <v>7343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6962,13 @@
         <v>39055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>38671</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6998,13 +6998,13 @@
         <v>24162</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -7013,13 +7013,13 @@
         <v>62833</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7034,13 @@
         <v>14645</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7049,13 +7049,13 @@
         <v>9731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>69</v>
+        <v>564</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -7064,13 +7064,13 @@
         <v>24376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>566</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7141,10 +7141,10 @@
         <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>569</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7153,13 +7153,13 @@
         <v>1779</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7168,13 +7168,13 @@
         <v>1779</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7189,13 @@
         <v>21718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>572</v>
+        <v>423</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -7204,13 +7204,13 @@
         <v>15440</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7219,10 +7219,10 @@
         <v>37159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>578</v>
@@ -7324,10 +7324,10 @@
         <v>594</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>135</v>
+        <v>595</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7342,13 @@
         <v>22170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7357,13 +7357,13 @@
         <v>11606</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>455</v>
+        <v>601</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -7372,13 +7372,13 @@
         <v>33777</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,7 +7434,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7446,13 +7446,13 @@
         <v>28551</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>602</v>
+        <v>436</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -7461,13 +7461,13 @@
         <v>29977</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>413</v>
+        <v>609</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M40" s="7">
         <v>54</v>
@@ -7476,13 +7476,13 @@
         <v>58528</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7497,13 @@
         <v>41431</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -7512,13 +7512,13 @@
         <v>40342</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="M41" s="7">
         <v>77</v>
@@ -7527,13 +7527,13 @@
         <v>81773</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7548,13 @@
         <v>114727</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -7563,13 +7563,13 @@
         <v>86016</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M42" s="7">
         <v>183</v>
@@ -7578,13 +7578,13 @@
         <v>200743</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7599,13 @@
         <v>72566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>565</v>
+        <v>481</v>
       </c>
       <c r="H43" s="7">
         <v>49</v>
@@ -7614,13 +7614,13 @@
         <v>51549</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M43" s="7">
         <v>111</v>
@@ -7629,13 +7629,13 @@
         <v>124115</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7650,13 @@
         <v>102651</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>638</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>635</v>
+        <v>344</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -7665,13 +7665,13 @@
         <v>76982</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>639</v>
+        <v>84</v>
       </c>
       <c r="M44" s="7">
         <v>162</v>
@@ -7680,13 +7680,13 @@
         <v>179633</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,7 +7742,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7754,13 +7754,13 @@
         <v>12292</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>201</v>
+        <v>645</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -7769,13 +7769,13 @@
         <v>9296</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -7784,13 +7784,13 @@
         <v>21588</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7805,13 @@
         <v>16033</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -7820,13 +7820,13 @@
         <v>22105</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>652</v>
+        <v>370</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>337</v>
+        <v>655</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>653</v>
+        <v>264</v>
       </c>
       <c r="M47" s="7">
         <v>38</v>
@@ -7835,13 +7835,13 @@
         <v>38138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7856,13 @@
         <v>62222</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7871,13 +7871,13 @@
         <v>32633</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M48" s="7">
         <v>89</v>
@@ -7886,13 +7886,13 @@
         <v>94855</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>662</v>
+        <v>131</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7907,13 @@
         <v>113886</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>431</v>
+        <v>666</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H49" s="7">
         <v>95</v>
@@ -7922,13 +7922,13 @@
         <v>97933</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M49" s="7">
         <v>206</v>
@@ -7937,13 +7937,13 @@
         <v>211819</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7958,13 @@
         <v>124504</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -7973,13 +7973,13 @@
         <v>78504</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>93</v>
+        <v>677</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="M50" s="7">
         <v>192</v>
@@ -7988,13 +7988,13 @@
         <v>203008</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8062,13 @@
         <v>81523</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>680</v>
+        <v>73</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -8077,13 +8077,13 @@
         <v>90677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>683</v>
+        <v>36</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>51</v>
+        <v>608</v>
       </c>
       <c r="M52" s="7">
         <v>161</v>
@@ -8092,13 +8092,13 @@
         <v>172200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,10 +8116,10 @@
         <v>41</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H53" s="7">
         <v>129</v>
@@ -8128,13 +8128,13 @@
         <v>127625</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>689</v>
+        <v>116</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>690</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>691</v>
+        <v>493</v>
       </c>
       <c r="M53" s="7">
         <v>259</v>
@@ -8143,13 +8143,13 @@
         <v>265061</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8164,13 @@
         <v>357915</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -8179,13 +8179,13 @@
         <v>230374</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>698</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="M54" s="7">
         <v>555</v>
@@ -8194,13 +8194,13 @@
         <v>588290</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8215,13 @@
         <v>363417</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="H55" s="7">
         <v>270</v>
@@ -8230,13 +8230,13 @@
         <v>274543</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="M55" s="7">
         <v>613</v>
@@ -8245,13 +8245,13 @@
         <v>637961</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8266,13 @@
         <v>482031</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="H56" s="7">
         <v>301</v>
@@ -8281,13 +8281,13 @@
         <v>313952</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="M56" s="7">
         <v>748</v>
@@ -8296,13 +8296,13 @@
         <v>795983</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,7 +8358,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F2EBF8-5988-4B73-82D2-6430C57F8A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1959EB9F-7545-46A0-B4B3-9A9152A0F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BA28C44-B9BF-461A-967F-9E4A6D3BCA4F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2465A192-3B1F-4FAC-85D0-68F420E88A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="713">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -93,2104 +93,2089 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C3224A-43E0-4856-A07F-B172E597F273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4772A1D8-DAA5-4FB0-B1F1-B5C2EDAF4706}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3462,10 +3447,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3474,13 +3459,13 @@
         <v>11908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3489,13 +3474,13 @@
         <v>46910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3495,13 @@
         <v>65110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3525,13 +3510,13 @@
         <v>40304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -3540,13 +3525,13 @@
         <v>105415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3587,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3614,13 +3599,13 @@
         <v>22713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3629,13 +3614,13 @@
         <v>17680</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3644,13 +3629,13 @@
         <v>40393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3650,13 @@
         <v>12789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3680,13 +3665,13 @@
         <v>10431</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3695,13 +3680,13 @@
         <v>23219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3701,13 @@
         <v>37887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3731,13 +3716,13 @@
         <v>38600</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -3746,13 +3731,13 @@
         <v>76487</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3752,13 @@
         <v>52454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -3782,13 +3767,13 @@
         <v>31843</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -3797,13 +3782,13 @@
         <v>84297</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3803,13 @@
         <v>143686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -3833,13 +3818,13 @@
         <v>91158</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>217</v>
@@ -3848,13 +3833,13 @@
         <v>234843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3895,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3922,13 +3907,13 @@
         <v>3071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3937,13 +3922,13 @@
         <v>3940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3952,13 +3937,13 @@
         <v>7011</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3958,13 @@
         <v>7595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3988,13 +3973,13 @@
         <v>11872</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4003,13 +3988,13 @@
         <v>19467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4009,13 @@
         <v>14613</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4039,13 +4024,13 @@
         <v>14341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -4054,13 +4039,13 @@
         <v>28954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4060,13 @@
         <v>14311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4090,13 +4075,13 @@
         <v>7824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -4105,13 +4090,13 @@
         <v>22135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4111,13 @@
         <v>41692</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4141,13 +4126,13 @@
         <v>17657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4156,13 +4141,13 @@
         <v>59349</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4203,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4215,13 @@
         <v>959</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4245,13 +4230,13 @@
         <v>1057</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4314,10 +4299,10 @@
         <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4317,13 @@
         <v>22712</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4347,13 +4332,13 @@
         <v>14855</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -4362,13 +4347,13 @@
         <v>37567</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4368,13 @@
         <v>22785</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4398,13 +4383,13 @@
         <v>12607</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4413,13 +4398,13 @@
         <v>35392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4419,13 @@
         <v>63526</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4449,13 +4434,13 @@
         <v>24424</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>80</v>
@@ -4464,13 +4449,13 @@
         <v>87951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4511,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4523,13 @@
         <v>10488</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -4553,13 +4538,13 @@
         <v>11399</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -4568,13 +4553,13 @@
         <v>21886</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4574,13 @@
         <v>14720</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4604,13 +4589,13 @@
         <v>17291</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
@@ -4619,13 +4604,13 @@
         <v>32011</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4625,13 @@
         <v>73331</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -4655,13 +4640,13 @@
         <v>51979</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4670,13 +4655,13 @@
         <v>125310</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4676,13 @@
         <v>49077</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H43" s="7">
         <v>24</v>
@@ -4706,13 +4691,13 @@
         <v>24374</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M43" s="7">
         <v>72</v>
@@ -4721,13 +4706,13 @@
         <v>73451</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4727,13 @@
         <v>123403</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -4757,13 +4742,13 @@
         <v>76136</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
@@ -4772,13 +4757,13 @@
         <v>199539</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4819,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4846,13 +4831,13 @@
         <v>11914</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -4861,13 +4846,13 @@
         <v>13056</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -4876,13 +4861,13 @@
         <v>24969</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4882,13 @@
         <v>22267</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -4912,13 +4897,13 @@
         <v>12702</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M47" s="7">
         <v>29</v>
@@ -4927,13 +4912,13 @@
         <v>34970</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4933,13 @@
         <v>84714</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H48" s="7">
         <v>45</v>
@@ -4963,13 +4948,13 @@
         <v>47705</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -4978,13 +4963,13 @@
         <v>132419</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4984,13 @@
         <v>127369</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H49" s="7">
         <v>80</v>
@@ -5014,13 +4999,13 @@
         <v>90904</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -5029,13 +5014,13 @@
         <v>218272</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5035,13 @@
         <v>115968</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H50" s="7">
         <v>87</v>
@@ -5065,13 +5050,13 @@
         <v>93036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M50" s="7">
         <v>197</v>
@@ -5080,13 +5065,13 @@
         <v>209004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5139,13 @@
         <v>58826</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -5169,13 +5154,13 @@
         <v>60240</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M52" s="7">
         <v>110</v>
@@ -5184,13 +5169,13 @@
         <v>119067</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5190,13 @@
         <v>75679</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H53" s="7">
         <v>57</v>
@@ -5220,13 +5205,13 @@
         <v>63767</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M53" s="7">
         <v>125</v>
@@ -5235,13 +5220,13 @@
         <v>139446</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5241,13 @@
         <v>288346</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H54" s="7">
         <v>184</v>
@@ -5271,13 +5256,13 @@
         <v>198680</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M54" s="7">
         <v>457</v>
@@ -5286,13 +5271,13 @@
         <v>487026</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5292,13 @@
         <v>324840</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H55" s="7">
         <v>181</v>
@@ -5322,13 +5307,13 @@
         <v>198719</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -5337,13 +5322,13 @@
         <v>523559</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5343,13 @@
         <v>666760</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H56" s="7">
         <v>394</v>
@@ -5373,13 +5358,13 @@
         <v>422865</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M56" s="7">
         <v>1016</v>
@@ -5388,13 +5373,13 @@
         <v>1089625</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5435,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8024BF3A-838A-46D4-8C75-BFA0109503DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CF9FF-79B2-492D-B41B-F03D964919F0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,7 +5476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5598,13 +5583,13 @@
         <v>17357</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5613,13 +5598,13 @@
         <v>15900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5628,13 +5613,13 @@
         <v>33257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5634,13 @@
         <v>22412</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5664,13 +5649,13 @@
         <v>9762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5679,7 +5664,7 @@
         <v>32174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>379</v>
@@ -5700,13 +5685,13 @@
         <v>25747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5715,13 +5700,13 @@
         <v>19019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5730,13 +5715,13 @@
         <v>44765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5736,13 @@
         <v>24351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5766,13 +5751,13 @@
         <v>21428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5781,13 +5766,13 @@
         <v>45780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5787,13 @@
         <v>46298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5817,13 +5802,13 @@
         <v>34867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5832,13 +5817,13 @@
         <v>81165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5891,13 @@
         <v>9848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5921,13 +5906,13 @@
         <v>14454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5936,13 +5921,13 @@
         <v>24302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5942,13 @@
         <v>11743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5972,13 +5957,13 @@
         <v>14164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5987,13 +5972,13 @@
         <v>25906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5993,13 @@
         <v>39605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -6023,13 +6008,13 @@
         <v>23524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6038,13 +6023,13 @@
         <v>63129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>178</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6044,13 @@
         <v>41888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6074,13 +6059,13 @@
         <v>15710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6089,13 +6074,13 @@
         <v>57598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6095,13 @@
         <v>67213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6125,13 +6110,13 @@
         <v>45827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6140,13 +6125,13 @@
         <v>113040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6199,13 @@
         <v>6042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6229,7 +6214,7 @@
         <v>6678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>453</v>
@@ -6244,13 +6229,13 @@
         <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,10 +6250,10 @@
         <v>13952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>459</v>
@@ -6286,7 +6271,7 @@
         <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6295,13 +6280,13 @@
         <v>26225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6301,13 @@
         <v>40240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6331,13 +6316,13 @@
         <v>18742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6346,13 +6331,13 @@
         <v>58982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6352,13 @@
         <v>34869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6382,13 +6367,13 @@
         <v>32212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -6397,13 +6382,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6403,13 @@
         <v>31281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6433,13 +6418,13 @@
         <v>14429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6448,13 +6433,13 @@
         <v>45710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6495,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6522,13 +6507,13 @@
         <v>5518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6537,13 +6522,13 @@
         <v>11767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6552,13 +6537,13 @@
         <v>17285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6558,13 @@
         <v>9259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6588,13 +6573,13 @@
         <v>7084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6603,13 +6588,13 @@
         <v>16343</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6609,13 @@
         <v>15226</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6642,10 +6627,10 @@
         <v>41</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6654,13 +6639,13 @@
         <v>23134</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6660,13 @@
         <v>8909</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6711,7 +6696,7 @@
         <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6711,13 @@
         <v>73268</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -6741,13 +6726,13 @@
         <v>42005</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -6756,13 +6741,13 @@
         <v>115273</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,7 +6803,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6830,13 +6815,13 @@
         <v>1914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6845,13 +6830,13 @@
         <v>827</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6860,13 +6845,13 @@
         <v>2741</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6866,13 @@
         <v>888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6896,13 +6881,13 @@
         <v>6455</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -6911,13 +6896,13 @@
         <v>7343</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,13 +6917,13 @@
         <v>24812</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6947,13 +6932,13 @@
         <v>14243</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -6962,13 +6947,13 @@
         <v>39055</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6968,13 @@
         <v>38671</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6998,13 +6983,13 @@
         <v>24162</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -7013,13 +6998,13 @@
         <v>62833</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7019,13 @@
         <v>14645</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7049,13 +7034,13 @@
         <v>9731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -7064,13 +7049,13 @@
         <v>24376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>567</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,7 +7111,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7141,10 +7126,10 @@
         <v>65</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7153,13 +7138,13 @@
         <v>1779</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>568</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7168,13 +7153,13 @@
         <v>1779</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7174,13 @@
         <v>21718</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -7204,13 +7189,13 @@
         <v>15440</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7219,13 +7204,13 @@
         <v>37159</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7225,13 @@
         <v>35336</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7255,13 +7240,13 @@
         <v>28289</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -7270,13 +7255,13 @@
         <v>63625</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7276,13 @@
         <v>28277</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7306,13 +7291,13 @@
         <v>18453</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7321,13 +7306,13 @@
         <v>46731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7327,13 @@
         <v>22170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7357,13 +7342,13 @@
         <v>11606</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -7372,13 +7357,13 @@
         <v>33777</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,7 +7419,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7446,13 +7431,13 @@
         <v>28551</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>436</v>
+        <v>603</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -7461,13 +7446,13 @@
         <v>29977</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M40" s="7">
         <v>54</v>
@@ -7476,13 +7461,13 @@
         <v>58528</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7482,13 @@
         <v>41431</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>615</v>
+        <v>110</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -7512,13 +7497,13 @@
         <v>40342</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M41" s="7">
         <v>77</v>
@@ -7527,13 +7512,13 @@
         <v>81773</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7533,13 @@
         <v>114727</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>622</v>
+        <v>443</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -7563,13 +7548,13 @@
         <v>86016</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M42" s="7">
         <v>183</v>
@@ -7578,13 +7563,13 @@
         <v>200743</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7584,13 @@
         <v>72566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
       <c r="H43" s="7">
         <v>49</v>
@@ -7614,13 +7599,13 @@
         <v>51549</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M43" s="7">
         <v>111</v>
@@ -7629,13 +7614,13 @@
         <v>124115</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>636</v>
+        <v>501</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7635,13 @@
         <v>102651</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -7665,13 +7650,13 @@
         <v>76982</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>84</v>
+        <v>638</v>
       </c>
       <c r="M44" s="7">
         <v>162</v>
@@ -7680,13 +7665,13 @@
         <v>179633</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>642</v>
+        <v>479</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,7 +7727,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7754,13 +7739,13 @@
         <v>12292</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -7769,13 +7754,13 @@
         <v>9296</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -7784,13 +7769,13 @@
         <v>21588</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7790,13 @@
         <v>16033</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>652</v>
+        <v>198</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>654</v>
+        <v>511</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -7820,13 +7805,13 @@
         <v>22105</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>370</v>
+        <v>563</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>264</v>
+        <v>651</v>
       </c>
       <c r="M47" s="7">
         <v>38</v>
@@ -7835,13 +7820,13 @@
         <v>38138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>658</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7841,13 @@
         <v>62222</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>660</v>
+        <v>131</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7871,13 +7856,13 @@
         <v>32633</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M48" s="7">
         <v>89</v>
@@ -7886,13 +7871,13 @@
         <v>94855</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>131</v>
+        <v>658</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7892,13 @@
         <v>113886</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H49" s="7">
         <v>95</v>
@@ -7922,13 +7907,13 @@
         <v>97933</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>669</v>
+        <v>477</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M49" s="7">
         <v>206</v>
@@ -7937,13 +7922,13 @@
         <v>211819</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7943,13 @@
         <v>124504</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -7973,13 +7958,13 @@
         <v>78504</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="M50" s="7">
         <v>192</v>
@@ -7988,13 +7973,13 @@
         <v>203008</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8047,13 @@
         <v>81523</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>73</v>
+        <v>678</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -8077,13 +8062,13 @@
         <v>90677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M52" s="7">
         <v>161</v>
@@ -8092,13 +8077,13 @@
         <v>172200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>685</v>
+        <v>236</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>687</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,10 +8101,10 @@
         <v>41</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H53" s="7">
         <v>129</v>
@@ -8128,13 +8113,13 @@
         <v>127625</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>116</v>
+        <v>685</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>690</v>
+        <v>373</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>493</v>
+        <v>686</v>
       </c>
       <c r="M53" s="7">
         <v>259</v>
@@ -8143,13 +8128,13 @@
         <v>265061</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>164</v>
+        <v>687</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8149,13 @@
         <v>357915</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>695</v>
+        <v>254</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -8179,13 +8164,13 @@
         <v>230374</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="M54" s="7">
         <v>555</v>
@@ -8194,13 +8179,13 @@
         <v>588290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>699</v>
+        <v>374</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>700</v>
+        <v>431</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8200,13 @@
         <v>363417</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H55" s="7">
         <v>270</v>
@@ -8230,13 +8215,13 @@
         <v>274543</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="M55" s="7">
         <v>613</v>
@@ -8245,13 +8230,13 @@
         <v>637961</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8251,13 @@
         <v>482031</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H56" s="7">
         <v>301</v>
@@ -8281,13 +8266,13 @@
         <v>313952</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>306</v>
+        <v>707</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="M56" s="7">
         <v>748</v>
@@ -8296,13 +8281,13 @@
         <v>795983</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,7 +8343,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1959EB9F-7545-46A0-B4B3-9A9152A0F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD2C68E-BB36-4169-B2D0-431044A67881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2465A192-3B1F-4FAC-85D0-68F420E88A7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19876442-0C24-4251-872F-560A8A5FF167}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="718">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -93,2089 +93,2104 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>30,43%</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4772A1D8-DAA5-4FB0-B1F1-B5C2EDAF4706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29B484B-6D69-462A-B8C8-94BDF9D8BFAD}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3620,7 +3635,7 @@
         <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3629,7 +3644,7 @@
         <v>40393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>116</v>
@@ -3656,7 +3671,7 @@
         <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3665,13 +3680,13 @@
         <v>10431</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3680,13 +3695,13 @@
         <v>23219</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3716,13 @@
         <v>37887</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3716,13 +3731,13 @@
         <v>38600</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
@@ -3731,10 +3746,10 @@
         <v>76487</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>134</v>
@@ -4042,10 +4057,10 @@
         <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4075,13 @@
         <v>14311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4075,13 +4090,13 @@
         <v>7824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -4090,13 +4105,13 @@
         <v>22135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4126,13 @@
         <v>41692</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4126,13 +4141,13 @@
         <v>17657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4141,13 +4156,13 @@
         <v>59349</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4218,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4215,13 +4230,13 @@
         <v>959</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4230,13 +4245,13 @@
         <v>1057</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4245,13 +4260,13 @@
         <v>2016</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4281,13 @@
         <v>4967</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4281,13 +4296,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4296,13 +4311,13 @@
         <v>7316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4332,13 @@
         <v>22712</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4332,13 +4347,13 @@
         <v>14855</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -4347,13 +4362,13 @@
         <v>37567</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4383,13 @@
         <v>22785</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4383,13 +4398,13 @@
         <v>12607</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4398,13 +4413,13 @@
         <v>35392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4434,13 @@
         <v>63526</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4434,13 +4449,13 @@
         <v>24424</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>80</v>
@@ -4449,13 +4464,13 @@
         <v>87951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4526,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4523,13 +4538,13 @@
         <v>10488</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -4538,13 +4553,13 @@
         <v>11399</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -4553,13 +4568,13 @@
         <v>21886</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4589,13 @@
         <v>14720</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4589,13 +4604,13 @@
         <v>17291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
@@ -4607,10 +4622,10 @@
         <v>157</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4640,13 @@
         <v>73331</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -4640,13 +4655,13 @@
         <v>51979</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4655,13 +4670,13 @@
         <v>125310</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4691,13 @@
         <v>49077</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>24</v>
@@ -4691,28 +4706,28 @@
         <v>24374</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>72</v>
       </c>
       <c r="N43" s="7">
-        <v>73451</v>
+        <v>73450</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4742,13 @@
         <v>123403</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -4742,28 +4757,28 @@
         <v>76136</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
       </c>
       <c r="N44" s="7">
-        <v>199539</v>
+        <v>199538</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4820,7 @@
         <v>422</v>
       </c>
       <c r="N45" s="7">
-        <v>452196</v>
+        <v>452195</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>62</v>
@@ -4819,7 +4834,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4831,13 +4846,13 @@
         <v>11914</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -4846,13 +4861,13 @@
         <v>13056</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -4861,13 +4876,13 @@
         <v>24969</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4897,13 @@
         <v>22267</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -4897,13 +4912,13 @@
         <v>12702</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="M47" s="7">
         <v>29</v>
@@ -4912,13 +4927,13 @@
         <v>34970</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4948,13 @@
         <v>84714</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H48" s="7">
         <v>45</v>
@@ -4948,13 +4963,13 @@
         <v>47705</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -4963,13 +4978,13 @@
         <v>132419</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4999,13 @@
         <v>127369</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>80</v>
@@ -4999,13 +5014,13 @@
         <v>90904</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -5014,13 +5029,13 @@
         <v>218272</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5050,13 @@
         <v>115968</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H50" s="7">
         <v>87</v>
@@ -5050,13 +5065,13 @@
         <v>93036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M50" s="7">
         <v>197</v>
@@ -5065,13 +5080,13 @@
         <v>209004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5154,13 @@
         <v>58826</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -5154,13 +5169,13 @@
         <v>60240</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M52" s="7">
         <v>110</v>
@@ -5169,13 +5184,13 @@
         <v>119067</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5205,13 @@
         <v>75679</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>57</v>
@@ -5205,13 +5220,13 @@
         <v>63767</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M53" s="7">
         <v>125</v>
@@ -5220,13 +5235,13 @@
         <v>139446</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5256,13 @@
         <v>288346</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H54" s="7">
         <v>184</v>
@@ -5256,13 +5271,13 @@
         <v>198680</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M54" s="7">
         <v>457</v>
@@ -5271,13 +5286,13 @@
         <v>487026</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5307,13 @@
         <v>324840</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H55" s="7">
         <v>181</v>
@@ -5307,13 +5322,13 @@
         <v>198719</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -5322,13 +5337,13 @@
         <v>523559</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5358,13 @@
         <v>666760</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H56" s="7">
         <v>394</v>
@@ -5358,13 +5373,13 @@
         <v>422865</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M56" s="7">
         <v>1016</v>
@@ -5373,13 +5388,13 @@
         <v>1089625</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5450,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5459,7 +5474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CF9FF-79B2-492D-B41B-F03D964919F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8FB58D-9E86-49B6-9F3D-4C51F243EDF9}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5476,7 +5491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5583,13 +5598,13 @@
         <v>17357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5598,13 +5613,13 @@
         <v>15900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5613,13 +5628,13 @@
         <v>33257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5649,13 @@
         <v>22412</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5649,13 +5664,13 @@
         <v>9762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5664,13 +5679,13 @@
         <v>32174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5700,13 @@
         <v>25747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5700,13 +5715,13 @@
         <v>19019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5715,13 +5730,13 @@
         <v>44765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5751,13 @@
         <v>24351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5751,13 +5766,13 @@
         <v>21428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5766,13 +5781,13 @@
         <v>45780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5802,13 @@
         <v>46298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5802,13 +5817,13 @@
         <v>34867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5817,13 +5832,13 @@
         <v>81165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5906,13 @@
         <v>9848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5906,13 +5921,13 @@
         <v>14454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5921,13 +5936,13 @@
         <v>24302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5957,13 @@
         <v>11743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5957,13 +5972,13 @@
         <v>14164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5972,13 +5987,13 @@
         <v>25906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +6008,13 @@
         <v>39605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -6008,13 +6023,13 @@
         <v>23524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6023,13 +6038,13 @@
         <v>63129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6059,13 @@
         <v>41888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6059,13 +6074,13 @@
         <v>15710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6074,13 +6089,13 @@
         <v>57598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6110,13 @@
         <v>67213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6110,13 +6125,13 @@
         <v>45827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6125,13 +6140,13 @@
         <v>113040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6214,13 @@
         <v>6042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6214,13 +6229,13 @@
         <v>6678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -6229,13 +6244,13 @@
         <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6265,13 @@
         <v>13952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6265,13 +6280,13 @@
         <v>12273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6280,13 +6295,13 @@
         <v>26225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6316,13 @@
         <v>40240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6316,13 +6331,13 @@
         <v>18742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6331,13 +6346,13 @@
         <v>58982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6367,13 @@
         <v>34869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6367,13 +6382,13 @@
         <v>32212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -6382,13 +6397,13 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6418,13 @@
         <v>31281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6418,13 +6433,13 @@
         <v>14429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6433,13 +6448,13 @@
         <v>45710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6522,13 @@
         <v>5518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6522,13 +6537,13 @@
         <v>11767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6537,13 +6552,13 @@
         <v>17285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6573,13 @@
         <v>9259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6573,13 +6588,13 @@
         <v>7084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6588,13 +6603,13 @@
         <v>16343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6624,13 @@
         <v>15226</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6627,10 +6642,10 @@
         <v>41</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6639,10 +6654,10 @@
         <v>23134</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>512</v>
@@ -6660,13 +6675,13 @@
         <v>8909</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>43</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6675,10 +6690,10 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>518</v>
@@ -6696,7 +6711,7 @@
         <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6726,13 @@
         <v>73268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -6726,13 +6741,13 @@
         <v>42005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -6741,13 +6756,13 @@
         <v>115273</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6830,13 @@
         <v>1914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6830,13 +6845,13 @@
         <v>827</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6845,13 +6860,13 @@
         <v>2741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>532</v>
+        <v>74</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>534</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6881,13 @@
         <v>888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>535</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6881,13 +6896,13 @@
         <v>6455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -6896,13 +6911,13 @@
         <v>7343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6932,13 @@
         <v>24812</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6932,13 +6947,13 @@
         <v>14243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -6947,13 +6962,13 @@
         <v>39055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>549</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6983,13 @@
         <v>38671</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6983,13 +6998,13 @@
         <v>24162</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -6998,13 +7013,13 @@
         <v>62833</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +7034,13 @@
         <v>14645</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7034,10 +7049,10 @@
         <v>9731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>69</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>564</v>
@@ -7049,13 +7064,13 @@
         <v>24376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7126,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7129,7 +7144,7 @@
         <v>566</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>567</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7138,13 +7153,13 @@
         <v>1779</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7189,13 +7204,13 @@
         <v>15440</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>351</v>
+        <v>574</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>575</v>
+        <v>399</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7204,13 +7219,13 @@
         <v>37159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7240,13 @@
         <v>35336</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7240,13 +7255,13 @@
         <v>28289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -7255,13 +7270,13 @@
         <v>63625</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>586</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7291,13 @@
         <v>28277</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7291,13 +7306,13 @@
         <v>18453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7306,13 +7321,13 @@
         <v>46731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>593</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>446</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7342,13 @@
         <v>22170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7342,10 +7357,10 @@
         <v>11606</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>598</v>
+        <v>455</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>599</v>
@@ -7360,10 +7375,10 @@
         <v>600</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7434,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7431,13 +7446,13 @@
         <v>28551</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -7446,13 +7461,13 @@
         <v>29977</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="M40" s="7">
         <v>54</v>
@@ -7461,13 +7476,13 @@
         <v>58528</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,10 +7500,10 @@
         <v>610</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>110</v>
+        <v>611</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -7497,13 +7512,13 @@
         <v>40342</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M41" s="7">
         <v>77</v>
@@ -7512,13 +7527,13 @@
         <v>81773</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7548,13 @@
         <v>114727</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>443</v>
+        <v>619</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -7548,13 +7563,13 @@
         <v>86016</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M42" s="7">
         <v>183</v>
@@ -7563,13 +7578,13 @@
         <v>200743</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7599,13 @@
         <v>72566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="H43" s="7">
         <v>49</v>
@@ -7599,13 +7614,13 @@
         <v>51549</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M43" s="7">
         <v>111</v>
@@ -7614,13 +7629,13 @@
         <v>124115</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>501</v>
+        <v>633</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7650,13 @@
         <v>102651</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>633</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -7650,13 +7665,13 @@
         <v>76982</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M44" s="7">
         <v>162</v>
@@ -7665,13 +7680,13 @@
         <v>179633</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>479</v>
+        <v>640</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7742,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7739,10 +7754,10 @@
         <v>12292</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>641</v>
+        <v>290</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>642</v>
+        <v>201</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>643</v>
@@ -7754,7 +7769,7 @@
         <v>9296</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>644</v>
@@ -7790,13 +7805,13 @@
         <v>16033</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>198</v>
+        <v>649</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>511</v>
+        <v>651</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -7805,13 +7820,13 @@
         <v>22105</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>650</v>
+        <v>337</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M47" s="7">
         <v>38</v>
@@ -7820,13 +7835,13 @@
         <v>38138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7856,13 @@
         <v>62222</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>131</v>
+        <v>658</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7856,13 +7871,13 @@
         <v>32633</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="M48" s="7">
         <v>89</v>
@@ -7871,13 +7886,13 @@
         <v>94855</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7907,13 @@
         <v>113886</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>661</v>
+        <v>431</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="H49" s="7">
         <v>95</v>
@@ -7907,13 +7922,13 @@
         <v>97933</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>477</v>
+        <v>667</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M49" s="7">
         <v>206</v>
@@ -7922,13 +7937,13 @@
         <v>211819</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +7958,13 @@
         <v>124504</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -7958,13 +7973,13 @@
         <v>78504</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>671</v>
+        <v>93</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M50" s="7">
         <v>192</v>
@@ -7973,13 +7988,13 @@
         <v>203008</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8062,13 @@
         <v>81523</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -8062,13 +8077,13 @@
         <v>90677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>412</v>
+        <v>683</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>681</v>
+        <v>51</v>
       </c>
       <c r="M52" s="7">
         <v>161</v>
@@ -8077,13 +8092,13 @@
         <v>172200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>236</v>
+        <v>684</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>126</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,10 +8116,10 @@
         <v>41</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H53" s="7">
         <v>129</v>
@@ -8113,13 +8128,13 @@
         <v>127625</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>373</v>
+        <v>690</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="M53" s="7">
         <v>259</v>
@@ -8128,13 +8143,13 @@
         <v>265061</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8164,13 @@
         <v>357915</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>254</v>
+        <v>697</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -8164,13 +8179,13 @@
         <v>230374</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>693</v>
+        <v>211</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="M54" s="7">
         <v>555</v>
@@ -8179,13 +8194,13 @@
         <v>588290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>374</v>
+        <v>700</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>431</v>
+        <v>701</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8215,13 @@
         <v>363417</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="H55" s="7">
         <v>270</v>
@@ -8215,13 +8230,13 @@
         <v>274543</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="M55" s="7">
         <v>613</v>
@@ -8230,13 +8245,13 @@
         <v>637961</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8266,13 @@
         <v>482031</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>704</v>
+        <v>450</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>706</v>
+        <v>624</v>
       </c>
       <c r="H56" s="7">
         <v>301</v>
@@ -8266,13 +8281,13 @@
         <v>313952</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="M56" s="7">
         <v>748</v>
@@ -8281,13 +8296,13 @@
         <v>795983</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>712</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,7 +8358,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6713-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD2C68E-BB36-4169-B2D0-431044A67881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D340AE5-2263-42D2-B230-D73B5C7EC633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19876442-0C24-4251-872F-560A8A5FF167}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6BC5C1D2-8351-4317-9567-641222615FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="751">
   <si>
     <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -72,21 +72,150 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -225,18 +354,12 @@
     <t>71,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,7%</t>
   </si>
   <si>
@@ -369,1662 +492,1641 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le permite que aprenda cosas nuevas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
     <t>13,67%</t>
   </si>
   <si>
@@ -2119,9 +2221,6 @@
   </si>
   <si>
     <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
   </si>
   <si>
     <t>25,16%</t>
@@ -2602,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29B484B-6D69-462A-B8C8-94BDF9D8BFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254A06F-F8F6-463F-A2E1-7FCED1AE6A6E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2720,223 +2819,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15539</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10874</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26413</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3129</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2160</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5289</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17333</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19232</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>36565</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17747</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4346</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N7" s="7">
+        <v>22093</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D8" s="7">
+        <v>73092</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50652</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="N8" s="7">
+        <v>123744</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,48 +3074,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>126840</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="7">
+        <v>87263</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="7">
+        <v>214103</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2998,13 +3133,13 @@
         <v>8747</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3013,13 +3148,13 @@
         <v>10204</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3028,19 +3163,19 @@
         <v>18951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
@@ -3049,13 +3184,13 @@
         <v>6756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3064,13 +3199,13 @@
         <v>4107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3079,19 +3214,19 @@
         <v>10863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>18</v>
@@ -3100,13 +3235,13 @@
         <v>19520</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3115,13 +3250,13 @@
         <v>8967</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -3130,19 +3265,19 @@
         <v>28487</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>23</v>
@@ -3151,13 +3286,13 @@
         <v>23842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3166,13 +3301,13 @@
         <v>19260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3181,19 +3316,19 @@
         <v>43102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>104</v>
@@ -3202,13 +3337,13 @@
         <v>113375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -3217,13 +3352,13 @@
         <v>80150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3232,13 +3367,13 @@
         <v>193525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3388,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3268,13 +3403,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3283,18 +3418,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3306,13 +3441,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3321,13 +3456,13 @@
         <v>2906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3336,19 +3471,19 @@
         <v>3841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -3357,13 +3492,13 @@
         <v>6585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3372,13 +3507,13 @@
         <v>5015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3387,19 +3522,19 @@
         <v>11600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>36</v>
@@ -3408,13 +3543,13 @@
         <v>35569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3423,13 +3558,13 @@
         <v>22233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3438,19 +3573,19 @@
         <v>57802</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>34</v>
@@ -3459,13 +3594,13 @@
         <v>35002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3474,13 +3609,13 @@
         <v>11908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3489,19 +3624,19 @@
         <v>46910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>67</v>
@@ -3510,13 +3645,13 @@
         <v>65110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -3525,13 +3660,13 @@
         <v>40304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -3540,13 +3675,13 @@
         <v>105415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3696,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -3576,13 +3711,13 @@
         <v>82366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3591,270 +3726,270 @@
         <v>225567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>22713</v>
+        <v>7174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>17680</v>
+        <v>6806</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>40393</v>
+        <v>13980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>12789</v>
+        <v>9660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>10431</v>
+        <v>8271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7">
-        <v>23219</v>
+        <v>17931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>37887</v>
+        <v>20555</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>38600</v>
+        <v>19368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>76487</v>
+        <v>39923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>52454</v>
+        <v>34708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>31843</v>
+        <v>27497</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>84297</v>
+        <v>62204</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>143686</v>
+        <v>70593</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>91158</v>
+        <v>40506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="N26" s="7">
-        <v>234843</v>
+        <v>111099</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,54 +3998,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>269529</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="I27" s="7">
-        <v>189711</v>
+        <v>102448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="N27" s="7">
-        <v>459240</v>
+        <v>245137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3922,13 +4057,13 @@
         <v>3071</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3937,13 +4072,13 @@
         <v>3940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -3952,19 +4087,19 @@
         <v>7011</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>7</v>
@@ -3973,13 +4108,13 @@
         <v>7595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3988,13 +4123,13 @@
         <v>11872</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4003,19 +4138,19 @@
         <v>19467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>14</v>
@@ -4024,13 +4159,13 @@
         <v>14613</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4039,13 +4174,13 @@
         <v>14341</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -4054,19 +4189,19 @@
         <v>28954</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>14</v>
@@ -4075,13 +4210,13 @@
         <v>14311</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -4090,13 +4225,13 @@
         <v>7824</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -4105,19 +4240,19 @@
         <v>22135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>36</v>
@@ -4126,13 +4261,13 @@
         <v>41692</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -4141,13 +4276,13 @@
         <v>17657</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4156,13 +4291,13 @@
         <v>59349</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4312,13 @@
         <v>81282</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4192,13 +4327,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>128</v>
@@ -4207,18 +4342,18 @@
         <v>136916</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4365,13 @@
         <v>959</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4245,13 +4380,13 @@
         <v>1057</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4260,19 +4395,19 @@
         <v>2016</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -4281,13 +4416,13 @@
         <v>4967</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4296,13 +4431,13 @@
         <v>2349</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -4311,19 +4446,19 @@
         <v>7316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>22</v>
@@ -4332,13 +4467,13 @@
         <v>22712</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -4347,13 +4482,13 @@
         <v>14855</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>36</v>
@@ -4362,19 +4497,19 @@
         <v>37567</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>21</v>
@@ -4383,13 +4518,13 @@
         <v>22785</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4398,13 +4533,13 @@
         <v>12607</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4413,19 +4548,19 @@
         <v>35392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>58</v>
@@ -4434,13 +4569,13 @@
         <v>63526</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>22</v>
@@ -4449,13 +4584,13 @@
         <v>24424</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>80</v>
@@ -4464,13 +4599,13 @@
         <v>87951</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4620,13 @@
         <v>114949</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4500,13 +4635,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>159</v>
@@ -4515,18 +4650,18 @@
         <v>170242</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4673,13 @@
         <v>10488</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>11</v>
@@ -4553,13 +4688,13 @@
         <v>11399</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>21</v>
@@ -4568,19 +4703,19 @@
         <v>21886</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>13</v>
@@ -4589,13 +4724,13 @@
         <v>14720</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4604,13 +4739,13 @@
         <v>17291</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
@@ -4619,19 +4754,19 @@
         <v>32011</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>68</v>
@@ -4640,13 +4775,13 @@
         <v>73331</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>47</v>
@@ -4655,13 +4790,13 @@
         <v>51979</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>115</v>
@@ -4670,19 +4805,19 @@
         <v>125310</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>48</v>
@@ -4691,13 +4826,13 @@
         <v>49077</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>24</v>
@@ -4706,13 +4841,13 @@
         <v>24374</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="M43" s="7">
         <v>72</v>
@@ -4721,19 +4856,19 @@
         <v>73450</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>113</v>
@@ -4742,13 +4877,13 @@
         <v>123403</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -4757,13 +4892,13 @@
         <v>76136</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>186</v>
@@ -4772,13 +4907,13 @@
         <v>199538</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4928,13 @@
         <v>271018</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>170</v>
@@ -4808,13 +4943,13 @@
         <v>181178</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>422</v>
@@ -4823,18 +4958,18 @@
         <v>452195</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4846,13 +4981,13 @@
         <v>11914</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -4861,13 +4996,13 @@
         <v>13056</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -4876,19 +5011,19 @@
         <v>24969</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>19</v>
@@ -4897,13 +5032,13 @@
         <v>22267</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -4912,13 +5047,13 @@
         <v>12702</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>29</v>
@@ -4927,19 +5062,19 @@
         <v>34970</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C48" s="7">
         <v>78</v>
@@ -4948,13 +5083,13 @@
         <v>84714</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="H48" s="7">
         <v>45</v>
@@ -4963,13 +5098,13 @@
         <v>47705</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>123</v>
@@ -4978,19 +5113,19 @@
         <v>132419</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <v>119</v>
@@ -4999,13 +5134,13 @@
         <v>127369</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H49" s="7">
         <v>80</v>
@@ -5014,13 +5149,13 @@
         <v>90904</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>199</v>
@@ -5029,19 +5164,19 @@
         <v>218272</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>110</v>
@@ -5050,13 +5185,13 @@
         <v>115968</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="H50" s="7">
         <v>87</v>
@@ -5065,13 +5200,13 @@
         <v>93036</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>197</v>
@@ -5080,13 +5215,13 @@
         <v>209004</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5236,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7">
         <v>233</v>
@@ -5116,13 +5251,13 @@
         <v>257403</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M51" s="7">
         <v>570</v>
@@ -5131,13 +5266,13 @@
         <v>619635</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5289,13 @@
         <v>58826</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="H52" s="7">
         <v>56</v>
@@ -5169,13 +5304,13 @@
         <v>60240</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M52" s="7">
         <v>110</v>
@@ -5184,19 +5319,19 @@
         <v>119067</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>68</v>
@@ -5205,13 +5340,13 @@
         <v>75679</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H53" s="7">
         <v>57</v>
@@ -5220,13 +5355,13 @@
         <v>63767</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M53" s="7">
         <v>125</v>
@@ -5235,19 +5370,19 @@
         <v>139446</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C54" s="7">
         <v>273</v>
@@ -5256,13 +5391,13 @@
         <v>288346</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="H54" s="7">
         <v>184</v>
@@ -5271,13 +5406,13 @@
         <v>198680</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M54" s="7">
         <v>457</v>
@@ -5286,19 +5421,19 @@
         <v>487026</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
         <v>312</v>
@@ -5307,13 +5442,13 @@
         <v>324840</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="H55" s="7">
         <v>181</v>
@@ -5322,13 +5457,13 @@
         <v>198719</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>493</v>
@@ -5337,19 +5472,19 @@
         <v>523559</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7">
         <v>622</v>
@@ -5358,13 +5493,13 @@
         <v>666760</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H56" s="7">
         <v>394</v>
@@ -5373,13 +5508,13 @@
         <v>422865</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="M56" s="7">
         <v>1016</v>
@@ -5388,13 +5523,13 @@
         <v>1089625</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5544,13 @@
         <v>1414451</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H57" s="7">
         <v>872</v>
@@ -5424,13 +5559,13 @@
         <v>944272</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M57" s="7">
         <v>2201</v>
@@ -5439,18 +5574,18 @@
         <v>2358722</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5474,7 +5609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8FB58D-9E86-49B6-9F3D-4C51F243EDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4913ED0-43DF-4927-8EAB-C3923F4CCEFA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5491,7 +5626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5598,13 +5733,13 @@
         <v>17357</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5613,13 +5748,13 @@
         <v>15900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5628,19 +5763,19 @@
         <v>33257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>19</v>
@@ -5649,13 +5784,13 @@
         <v>22412</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5664,13 +5799,13 @@
         <v>9762</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5679,19 +5814,19 @@
         <v>32174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>23</v>
@@ -5700,13 +5835,13 @@
         <v>25747</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5715,13 +5850,13 @@
         <v>19019</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5730,19 +5865,19 @@
         <v>44765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>21</v>
@@ -5751,13 +5886,13 @@
         <v>24351</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5766,13 +5901,13 @@
         <v>21428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -5781,19 +5916,19 @@
         <v>45780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>42</v>
@@ -5802,13 +5937,13 @@
         <v>46298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5817,13 +5952,13 @@
         <v>34867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5832,13 +5967,13 @@
         <v>81165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5988,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5868,13 +6003,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5883,18 +6018,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5906,13 +6041,13 @@
         <v>9848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5921,13 +6056,13 @@
         <v>14454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -5936,19 +6071,19 @@
         <v>24302</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -5957,13 +6092,13 @@
         <v>11743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5972,13 +6107,13 @@
         <v>14164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -5987,19 +6122,19 @@
         <v>25906</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>36</v>
@@ -6008,13 +6143,13 @@
         <v>39605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -6023,13 +6158,13 @@
         <v>23524</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -6038,19 +6173,19 @@
         <v>63129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>39</v>
@@ -6059,13 +6194,13 @@
         <v>41888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -6074,13 +6209,13 @@
         <v>15710</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6089,19 +6224,19 @@
         <v>57598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>61</v>
@@ -6110,13 +6245,13 @@
         <v>67213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>478</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -6125,13 +6260,13 @@
         <v>45827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -6140,13 +6275,13 @@
         <v>113040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6296,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6176,13 +6311,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6191,18 +6326,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6214,13 +6349,13 @@
         <v>6042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -6229,13 +6364,13 @@
         <v>6678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -6244,19 +6379,19 @@
         <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>15</v>
@@ -6265,13 +6400,13 @@
         <v>13952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6280,13 +6415,13 @@
         <v>12273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6295,19 +6430,19 @@
         <v>26225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>42</v>
@@ -6316,13 +6451,13 @@
         <v>40240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -6331,13 +6466,13 @@
         <v>18742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>61</v>
@@ -6346,19 +6481,19 @@
         <v>58982</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>35</v>
@@ -6367,13 +6502,13 @@
         <v>34869</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -6382,13 +6517,13 @@
         <v>32212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -6397,19 +6532,19 @@
         <v>67081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -6418,13 +6553,13 @@
         <v>31281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6433,13 +6568,13 @@
         <v>14429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6448,13 +6583,13 @@
         <v>45710</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6604,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6484,13 +6619,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6499,18 +6634,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6522,13 +6657,13 @@
         <v>5518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6537,13 +6672,13 @@
         <v>11767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -6552,19 +6687,19 @@
         <v>17285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>9</v>
@@ -6573,13 +6708,13 @@
         <v>9259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6588,13 +6723,13 @@
         <v>7084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6603,19 +6738,19 @@
         <v>16343</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>13</v>
@@ -6624,13 +6759,13 @@
         <v>15226</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6639,13 +6774,13 @@
         <v>7908</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6654,19 +6789,19 @@
         <v>23134</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>9</v>
@@ -6675,13 +6810,13 @@
         <v>8909</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6690,13 +6825,13 @@
         <v>13094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6705,19 +6840,19 @@
         <v>22004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>68</v>
@@ -6726,13 +6861,13 @@
         <v>73268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -6741,13 +6876,13 @@
         <v>42005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="M26" s="7">
         <v>109</v>
@@ -6756,13 +6891,13 @@
         <v>115273</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>559</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6912,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6792,13 +6927,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6807,18 +6942,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6830,13 +6965,13 @@
         <v>1914</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6845,13 +6980,13 @@
         <v>827</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -6860,19 +6995,19 @@
         <v>2741</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -6881,13 +7016,13 @@
         <v>888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -6896,13 +7031,13 @@
         <v>6455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -6911,19 +7046,19 @@
         <v>7343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>23</v>
@@ -6932,13 +7067,13 @@
         <v>24812</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6947,13 +7082,13 @@
         <v>14243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -6962,19 +7097,19 @@
         <v>39055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>39</v>
@@ -6983,13 +7118,13 @@
         <v>38671</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -6998,13 +7133,13 @@
         <v>24162</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="M31" s="7">
         <v>65</v>
@@ -7013,19 +7148,19 @@
         <v>62833</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -7034,13 +7169,13 @@
         <v>14645</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -7049,13 +7184,13 @@
         <v>9731</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -7064,13 +7199,13 @@
         <v>24376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7220,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7100,13 +7235,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7115,18 +7250,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7138,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7153,13 +7288,13 @@
         <v>1779</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -7168,19 +7303,19 @@
         <v>1779</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>21</v>
@@ -7189,13 +7324,13 @@
         <v>21718</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -7204,13 +7339,13 @@
         <v>15440</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7219,19 +7354,19 @@
         <v>37159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>34</v>
@@ -7240,13 +7375,13 @@
         <v>35336</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7255,13 +7390,13 @@
         <v>28289</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="M36" s="7">
         <v>63</v>
@@ -7270,19 +7405,19 @@
         <v>63625</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>27</v>
@@ -7291,13 +7426,13 @@
         <v>28277</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7306,13 +7441,13 @@
         <v>18453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7321,19 +7456,19 @@
         <v>46731</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>135</v>
+        <v>627</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>21</v>
@@ -7342,13 +7477,13 @@
         <v>22170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -7357,13 +7492,13 @@
         <v>11606</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -7372,13 +7507,13 @@
         <v>33777</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7528,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7408,13 +7543,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7423,18 +7558,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7446,13 +7581,13 @@
         <v>28551</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="H40" s="7">
         <v>28</v>
@@ -7461,13 +7596,13 @@
         <v>29977</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="M40" s="7">
         <v>54</v>
@@ -7476,19 +7611,19 @@
         <v>58528</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>37</v>
@@ -7497,13 +7632,13 @@
         <v>41431</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="H41" s="7">
         <v>40</v>
@@ -7512,13 +7647,13 @@
         <v>40342</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="M41" s="7">
         <v>77</v>
@@ -7527,19 +7662,19 @@
         <v>81773</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>99</v>
@@ -7548,13 +7683,13 @@
         <v>114727</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -7563,13 +7698,13 @@
         <v>86016</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="M42" s="7">
         <v>183</v>
@@ -7578,19 +7713,19 @@
         <v>200743</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>62</v>
@@ -7599,13 +7734,13 @@
         <v>72566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="H43" s="7">
         <v>49</v>
@@ -7614,13 +7749,13 @@
         <v>51549</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="M43" s="7">
         <v>111</v>
@@ -7629,19 +7764,19 @@
         <v>124115</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>89</v>
@@ -7650,13 +7785,13 @@
         <v>102651</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="H44" s="7">
         <v>73</v>
@@ -7665,13 +7800,13 @@
         <v>76982</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="M44" s="7">
         <v>162</v>
@@ -7680,13 +7815,13 @@
         <v>179633</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7836,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7716,13 +7851,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7731,18 +7866,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7754,13 +7889,13 @@
         <v>12292</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -7769,13 +7904,13 @@
         <v>9296</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -7784,19 +7919,19 @@
         <v>21588</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>16</v>
@@ -7805,13 +7940,13 @@
         <v>16033</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="H47" s="7">
         <v>22</v>
@@ -7820,13 +7955,13 @@
         <v>22105</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="M47" s="7">
         <v>38</v>
@@ -7835,19 +7970,19 @@
         <v>38138</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C48" s="7">
         <v>58</v>
@@ -7856,13 +7991,13 @@
         <v>62222</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -7871,13 +8006,13 @@
         <v>32633</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="M48" s="7">
         <v>89</v>
@@ -7886,19 +8021,19 @@
         <v>94855</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>132</v>
+        <v>695</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <v>111</v>
@@ -7907,13 +8042,13 @@
         <v>113886</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="H49" s="7">
         <v>95</v>
@@ -7922,13 +8057,13 @@
         <v>97933</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="M49" s="7">
         <v>206</v>
@@ -7937,19 +8072,19 @@
         <v>211819</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>118</v>
@@ -7958,13 +8093,13 @@
         <v>124504</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -7973,13 +8108,13 @@
         <v>78504</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="M50" s="7">
         <v>192</v>
@@ -7988,13 +8123,13 @@
         <v>203008</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,13 +8144,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8024,13 +8159,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8039,13 +8174,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8197,13 @@
         <v>81523</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="H52" s="7">
         <v>86</v>
@@ -8077,13 +8212,13 @@
         <v>90677</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="M52" s="7">
         <v>161</v>
@@ -8092,19 +8227,19 @@
         <v>172200</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>130</v>
@@ -8113,13 +8248,13 @@
         <v>137436</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="H53" s="7">
         <v>129</v>
@@ -8128,13 +8263,13 @@
         <v>127625</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="M53" s="7">
         <v>259</v>
@@ -8143,19 +8278,19 @@
         <v>265061</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>694</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C54" s="7">
         <v>328</v>
@@ -8164,13 +8299,13 @@
         <v>357915</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -8179,13 +8314,13 @@
         <v>230374</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="M54" s="7">
         <v>555</v>
@@ -8194,19 +8329,19 @@
         <v>588290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
         <v>343</v>
@@ -8215,13 +8350,13 @@
         <v>363417</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="H55" s="7">
         <v>270</v>
@@ -8230,13 +8365,13 @@
         <v>274543</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="M55" s="7">
         <v>613</v>
@@ -8245,19 +8380,19 @@
         <v>637961</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7">
         <v>447</v>
@@ -8266,13 +8401,13 @@
         <v>482031</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="H56" s="7">
         <v>301</v>
@@ -8281,13 +8416,13 @@
         <v>313952</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="M56" s="7">
         <v>748</v>
@@ -8296,13 +8431,13 @@
         <v>795983</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8452,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8332,13 +8467,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8347,18 +8482,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
